--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mdk-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mdk-Itga6.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H2">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I2">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J2">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>197.2278263333334</v>
+        <v>145.7087706666667</v>
       </c>
       <c r="N2">
-        <v>591.683479</v>
+        <v>437.126312</v>
       </c>
       <c r="O2">
-        <v>0.6783778564662776</v>
+        <v>0.5445232453600627</v>
       </c>
       <c r="P2">
-        <v>0.68503695276089</v>
+        <v>0.5461141113270247</v>
       </c>
       <c r="Q2">
-        <v>246.98051780418</v>
+        <v>63.78022593129599</v>
       </c>
       <c r="R2">
-        <v>2222.82466023762</v>
+        <v>574.022033381664</v>
       </c>
       <c r="S2">
-        <v>0.03903253006401221</v>
+        <v>0.01114245314146525</v>
       </c>
       <c r="T2">
-        <v>0.04218487884560473</v>
+        <v>0.01203956664918166</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H3">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I3">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J3">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.689053</v>
       </c>
       <c r="O3">
-        <v>0.003083057200020643</v>
+        <v>0.003349722554576428</v>
       </c>
       <c r="P3">
-        <v>0.003113321122377543</v>
+        <v>0.003359509023117945</v>
       </c>
       <c r="Q3">
-        <v>1.12246450326</v>
+        <v>0.392354345124</v>
       </c>
       <c r="R3">
-        <v>10.10218052934</v>
+        <v>3.531189106116</v>
       </c>
       <c r="S3">
-        <v>0.0001773930586056167</v>
+        <v>6.854459735065445E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001917196931138412</v>
+        <v>7.406333576342092E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H4">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I4">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J4">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.82536200000001</v>
+        <v>51.59199533333333</v>
       </c>
       <c r="N4">
-        <v>128.476086</v>
+        <v>154.775986</v>
       </c>
       <c r="O4">
-        <v>0.1473006006102414</v>
+        <v>0.1928026748491032</v>
       </c>
       <c r="P4">
-        <v>0.1487465335432934</v>
+        <v>0.1933659624890163</v>
       </c>
       <c r="Q4">
-        <v>53.62848781812001</v>
+        <v>22.583054565288</v>
       </c>
       <c r="R4">
-        <v>482.65639036308</v>
+        <v>203.247491087592</v>
       </c>
       <c r="S4">
-        <v>0.008475387377347437</v>
+        <v>0.003945276511813092</v>
       </c>
       <c r="T4">
-        <v>0.009159877391924769</v>
+        <v>0.004262922976688274</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H5">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I5">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J5">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.478501</v>
+        <v>2.338518</v>
       </c>
       <c r="N5">
-        <v>16.957002</v>
+        <v>4.677036</v>
       </c>
       <c r="O5">
-        <v>0.02916235219621802</v>
+        <v>0.0087391953474509</v>
       </c>
       <c r="P5">
-        <v>0.01963241055449567</v>
+        <v>0.005843151713055659</v>
       </c>
       <c r="Q5">
-        <v>10.61728766226</v>
+        <v>1.023625453032</v>
       </c>
       <c r="R5">
-        <v>63.70372597356</v>
+        <v>6.141752718192</v>
       </c>
       <c r="S5">
-        <v>0.001677944493597687</v>
+        <v>0.0001788281317332806</v>
       </c>
       <c r="T5">
-        <v>0.00120897253403737</v>
+        <v>0.0001288174266723665</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H6">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I6">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J6">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.30642933333333</v>
+        <v>67.05398933333333</v>
       </c>
       <c r="N6">
-        <v>123.919288</v>
+        <v>201.161968</v>
       </c>
       <c r="O6">
-        <v>0.1420761335272424</v>
+        <v>0.2505851618888069</v>
       </c>
       <c r="P6">
-        <v>0.1434707820189435</v>
+        <v>0.2513172654477853</v>
       </c>
       <c r="Q6">
-        <v>51.72638919696</v>
+        <v>29.351140426944</v>
       </c>
       <c r="R6">
-        <v>465.53750277264</v>
+        <v>264.160263842496</v>
       </c>
       <c r="S6">
-        <v>0.008174781798108962</v>
+        <v>0.005127666170516251</v>
       </c>
       <c r="T6">
-        <v>0.008834994277258838</v>
+        <v>0.005540510498980323</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H7">
         <v>37.45258</v>
       </c>
       <c r="I7">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J7">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>197.2278263333334</v>
+        <v>145.7087706666667</v>
       </c>
       <c r="N7">
-        <v>591.683479</v>
+        <v>437.126312</v>
       </c>
       <c r="O7">
-        <v>0.6783778564662776</v>
+        <v>0.5445232453600627</v>
       </c>
       <c r="P7">
-        <v>0.68503695276089</v>
+        <v>0.5461141113270247</v>
       </c>
       <c r="Q7">
-        <v>2462.230314658425</v>
+        <v>1819.056463364995</v>
       </c>
       <c r="R7">
-        <v>22160.07283192582</v>
+        <v>16371.50817028496</v>
       </c>
       <c r="S7">
-        <v>0.3891281775416241</v>
+        <v>0.3177905237676241</v>
       </c>
       <c r="T7">
-        <v>0.4205549831918076</v>
+        <v>0.3433768258033281</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H8">
         <v>37.45258</v>
       </c>
       <c r="I8">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J8">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.689053</v>
       </c>
       <c r="O8">
-        <v>0.003083057200020643</v>
+        <v>0.003349722554576428</v>
       </c>
       <c r="P8">
-        <v>0.003113321122377543</v>
+        <v>0.003359509023117945</v>
       </c>
       <c r="Q8">
         <v>11.19021917852667</v>
@@ -948,10 +948,10 @@
         <v>100.71197260674</v>
       </c>
       <c r="S8">
-        <v>0.001768489961848059</v>
+        <v>0.00195493965439651</v>
       </c>
       <c r="T8">
-        <v>0.00191131691073781</v>
+        <v>0.002112337917459695</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H9">
         <v>37.45258</v>
       </c>
       <c r="I9">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J9">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.82536200000001</v>
+        <v>51.59199533333333</v>
       </c>
       <c r="N9">
-        <v>128.476086</v>
+        <v>154.775986</v>
       </c>
       <c r="O9">
-        <v>0.1473006006102414</v>
+        <v>0.1928026748491032</v>
       </c>
       <c r="P9">
-        <v>0.1487465335432934</v>
+        <v>0.1933659624890163</v>
       </c>
       <c r="Q9">
-        <v>534.6400987779869</v>
+        <v>644.0844441937643</v>
       </c>
       <c r="R9">
-        <v>4811.760889001881</v>
+        <v>5796.759997743879</v>
       </c>
       <c r="S9">
-        <v>0.08449393464112755</v>
+        <v>0.1125220338088238</v>
       </c>
       <c r="T9">
-        <v>0.09131784155879605</v>
+        <v>0.1215815322122736</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H10">
         <v>37.45258</v>
       </c>
       <c r="I10">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J10">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.478501</v>
+        <v>2.338518</v>
       </c>
       <c r="N10">
-        <v>16.957002</v>
+        <v>4.677036</v>
       </c>
       <c r="O10">
-        <v>0.02916235219621802</v>
+        <v>0.0087391953474509</v>
       </c>
       <c r="P10">
-        <v>0.01963241055449567</v>
+        <v>0.005843151713055659</v>
       </c>
       <c r="Q10">
-        <v>105.84724566086</v>
+        <v>29.19451082548</v>
       </c>
       <c r="R10">
-        <v>635.08347396516</v>
+        <v>175.16706495288</v>
       </c>
       <c r="S10">
-        <v>0.01672798257604301</v>
+        <v>0.005100302862070793</v>
       </c>
       <c r="T10">
-        <v>0.01205264629518825</v>
+        <v>0.003673962723726168</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H11">
         <v>37.45258</v>
       </c>
       <c r="I11">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J11">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.30642933333333</v>
+        <v>67.05398933333333</v>
       </c>
       <c r="N11">
-        <v>123.919288</v>
+        <v>201.161968</v>
       </c>
       <c r="O11">
-        <v>0.1420761335272424</v>
+        <v>0.2505851618888069</v>
       </c>
       <c r="P11">
-        <v>0.1434707820189435</v>
+        <v>0.2513172654477853</v>
       </c>
       <c r="Q11">
-        <v>515.6774497070045</v>
+        <v>837.1149666086044</v>
       </c>
       <c r="R11">
-        <v>4641.09704736304</v>
+        <v>7534.03469947744</v>
       </c>
       <c r="S11">
-        <v>0.08149709838644259</v>
+        <v>0.1462446103515408</v>
       </c>
       <c r="T11">
-        <v>0.08807897453898786</v>
+        <v>0.1580192181251965</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H12">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I12">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J12">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>197.2278263333334</v>
+        <v>145.7087706666667</v>
       </c>
       <c r="N12">
-        <v>591.683479</v>
+        <v>437.126312</v>
       </c>
       <c r="O12">
-        <v>0.6783778564662776</v>
+        <v>0.5445232453600627</v>
       </c>
       <c r="P12">
-        <v>0.68503695276089</v>
+        <v>0.5461141113270247</v>
       </c>
       <c r="Q12">
-        <v>277.2210002176085</v>
+        <v>261.8098591209982</v>
       </c>
       <c r="R12">
-        <v>2494.989001958477</v>
+        <v>2356.288732088984</v>
       </c>
       <c r="S12">
-        <v>0.04381170272688693</v>
+        <v>0.04573837807303709</v>
       </c>
       <c r="T12">
-        <v>0.04735002749046489</v>
+        <v>0.04942091694211829</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H13">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I13">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J13">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.689053</v>
       </c>
       <c r="O13">
-        <v>0.003083057200020643</v>
+        <v>0.003349722554576428</v>
       </c>
       <c r="P13">
-        <v>0.003113321122377543</v>
+        <v>0.003359509023117945</v>
       </c>
       <c r="Q13">
-        <v>1.259899910604333</v>
+        <v>1.610565568285667</v>
       </c>
       <c r="R13">
-        <v>11.339099195439</v>
+        <v>14.495090114571</v>
       </c>
       <c r="S13">
-        <v>0.0001991131995977928</v>
+        <v>0.0002813670085648713</v>
       </c>
       <c r="T13">
-        <v>0.0002151939981297282</v>
+        <v>0.0003040207402705011</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H14">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I14">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J14">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>42.82536200000001</v>
+        <v>51.59199533333333</v>
       </c>
       <c r="N14">
-        <v>128.476086</v>
+        <v>154.775986</v>
       </c>
       <c r="O14">
-        <v>0.1473006006102414</v>
+        <v>0.1928026748491032</v>
       </c>
       <c r="P14">
-        <v>0.1487465335432934</v>
+        <v>0.1933659624890163</v>
       </c>
       <c r="Q14">
-        <v>60.19480064773533</v>
+        <v>92.70061759625577</v>
       </c>
       <c r="R14">
-        <v>541.753205829618</v>
+        <v>834.3055583663019</v>
       </c>
       <c r="S14">
-        <v>0.009513120252840386</v>
+        <v>0.01619486718130821</v>
       </c>
       <c r="T14">
-        <v>0.0102814197453151</v>
+        <v>0.01749876623473643</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H15">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I15">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J15">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.478501</v>
+        <v>2.338518</v>
       </c>
       <c r="N15">
-        <v>16.957002</v>
+        <v>4.677036</v>
       </c>
       <c r="O15">
-        <v>0.02916235219621802</v>
+        <v>0.0087391953474509</v>
       </c>
       <c r="P15">
-        <v>0.01963241055449567</v>
+        <v>0.005843151713055659</v>
       </c>
       <c r="Q15">
-        <v>11.917276437421</v>
+        <v>4.201854598942</v>
       </c>
       <c r="R15">
-        <v>71.50365862452598</v>
+        <v>25.211127593652</v>
       </c>
       <c r="S15">
-        <v>0.001883393293367315</v>
+        <v>0.0007340671390282444</v>
       </c>
       <c r="T15">
-        <v>0.001357000050454118</v>
+        <v>0.0005287794427970677</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H16">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I16">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J16">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.30642933333333</v>
+        <v>67.05398933333333</v>
       </c>
       <c r="N16">
-        <v>123.919288</v>
+        <v>201.161968</v>
       </c>
       <c r="O16">
-        <v>0.1420761335272424</v>
+        <v>0.2505851618888069</v>
       </c>
       <c r="P16">
-        <v>0.1434707820189435</v>
+        <v>0.2513172654477853</v>
       </c>
       <c r="Q16">
-        <v>58.05980762497155</v>
+        <v>120.4827644934418</v>
       </c>
       <c r="R16">
-        <v>522.5382686247439</v>
+        <v>1084.344880440976</v>
       </c>
       <c r="S16">
-        <v>0.009175708297887908</v>
+        <v>0.02104842900946258</v>
       </c>
       <c r="T16">
-        <v>0.009916757695035855</v>
+        <v>0.02274310339946102</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H17">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I17">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J17">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>197.2278263333334</v>
+        <v>145.7087706666667</v>
       </c>
       <c r="N17">
-        <v>591.683479</v>
+        <v>437.126312</v>
       </c>
       <c r="O17">
-        <v>0.6783778564662776</v>
+        <v>0.5445232453600627</v>
       </c>
       <c r="P17">
-        <v>0.68503695276089</v>
+        <v>0.5461141113270247</v>
       </c>
       <c r="Q17">
-        <v>845.3295084229414</v>
+        <v>671.4708935333653</v>
       </c>
       <c r="R17">
-        <v>5071.977050537648</v>
+        <v>4028.825361200192</v>
       </c>
       <c r="S17">
-        <v>0.1335949480747128</v>
+        <v>0.1173064669779117</v>
       </c>
       <c r="T17">
-        <v>0.09625623703569398</v>
+        <v>0.0845007833032642</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H18">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I18">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J18">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.689053</v>
       </c>
       <c r="O18">
-        <v>0.003083057200020643</v>
+        <v>0.003349722554576428</v>
       </c>
       <c r="P18">
-        <v>0.003113321122377543</v>
+        <v>0.003359509023117945</v>
       </c>
       <c r="Q18">
-        <v>3.841810581656</v>
+        <v>4.130661484108</v>
       </c>
       <c r="R18">
-        <v>23.050863489936</v>
+        <v>24.783968904648</v>
       </c>
       <c r="S18">
-        <v>0.0006071555293588834</v>
+        <v>0.0007216296486548595</v>
       </c>
       <c r="T18">
-        <v>0.0004374604533609835</v>
+        <v>0.0005198201952299603</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H19">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I19">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J19">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>42.82536200000001</v>
+        <v>51.59199533333333</v>
       </c>
       <c r="N19">
-        <v>128.476086</v>
+        <v>154.775986</v>
       </c>
       <c r="O19">
-        <v>0.1473006006102414</v>
+        <v>0.1928026748491032</v>
       </c>
       <c r="P19">
-        <v>0.1487465335432934</v>
+        <v>0.1933659624890163</v>
       </c>
       <c r="Q19">
-        <v>183.551899752272</v>
+        <v>237.7518048305627</v>
       </c>
       <c r="R19">
-        <v>1101.311398513632</v>
+        <v>1426.510828983376</v>
       </c>
       <c r="S19">
-        <v>0.02900834085653478</v>
+        <v>0.04153541800678136</v>
       </c>
       <c r="T19">
-        <v>0.02090074343183445</v>
+        <v>0.02991970900515148</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H20">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I20">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J20">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.478501</v>
+        <v>2.338518</v>
       </c>
       <c r="N20">
-        <v>16.957002</v>
+        <v>4.677036</v>
       </c>
       <c r="O20">
-        <v>0.02916235219621802</v>
+        <v>0.0087391953474509</v>
       </c>
       <c r="P20">
-        <v>0.01963241055449567</v>
+        <v>0.005843151713055659</v>
       </c>
       <c r="Q20">
-        <v>36.339330082056</v>
+        <v>10.776611207544</v>
       </c>
       <c r="R20">
-        <v>145.357320328224</v>
+        <v>43.106444830176</v>
       </c>
       <c r="S20">
-        <v>0.005743027857195253</v>
+        <v>0.001882682032722745</v>
       </c>
       <c r="T20">
-        <v>0.002758598578221814</v>
+        <v>0.0009041167156681377</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H21">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I21">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J21">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>41.30642933333333</v>
+        <v>67.05398933333333</v>
       </c>
       <c r="N21">
-        <v>123.919288</v>
+        <v>201.161968</v>
       </c>
       <c r="O21">
-        <v>0.1420761335272424</v>
+        <v>0.2505851618888069</v>
       </c>
       <c r="P21">
-        <v>0.1434707820189435</v>
+        <v>0.2513172654477853</v>
       </c>
       <c r="Q21">
-        <v>177.0416692827093</v>
+        <v>309.0054354767147</v>
       </c>
       <c r="R21">
-        <v>1062.250015696256</v>
+        <v>1854.032612860288</v>
       </c>
       <c r="S21">
-        <v>0.02797947117569491</v>
+        <v>0.05398348053778044</v>
       </c>
       <c r="T21">
-        <v>0.02015943453277056</v>
+        <v>0.03888657214216419</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H22">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I22">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J22">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>197.2278263333334</v>
+        <v>145.7087706666667</v>
       </c>
       <c r="N22">
-        <v>591.683479</v>
+        <v>437.126312</v>
       </c>
       <c r="O22">
-        <v>0.6783778564662776</v>
+        <v>0.5445232453600627</v>
       </c>
       <c r="P22">
-        <v>0.68503695276089</v>
+        <v>0.5461141113270247</v>
       </c>
       <c r="Q22">
-        <v>460.7125001303042</v>
+        <v>300.7738900545618</v>
       </c>
       <c r="R22">
-        <v>4146.412501172738</v>
+        <v>2706.965010491056</v>
       </c>
       <c r="S22">
-        <v>0.07281049805904156</v>
+        <v>0.05254542340002456</v>
       </c>
       <c r="T22">
-        <v>0.07869082619731883</v>
+        <v>0.05677601862913238</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H23">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I23">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J23">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>2.689053</v>
       </c>
       <c r="O23">
-        <v>0.003083057200020643</v>
+        <v>0.003349722554576428</v>
       </c>
       <c r="P23">
-        <v>0.003113321122377543</v>
+        <v>0.003359509023117945</v>
       </c>
       <c r="Q23">
-        <v>2.093822752507333</v>
+        <v>1.850259087979333</v>
       </c>
       <c r="R23">
-        <v>18.844404772566</v>
+        <v>16.652331791814</v>
       </c>
       <c r="S23">
-        <v>0.0003309054506102914</v>
+        <v>0.0003232416456095333</v>
       </c>
       <c r="T23">
-        <v>0.0003576300670351804</v>
+        <v>0.0003492668343943668</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H24">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I24">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J24">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>42.82536200000001</v>
+        <v>51.59199533333333</v>
       </c>
       <c r="N24">
-        <v>128.476086</v>
+        <v>154.775986</v>
       </c>
       <c r="O24">
-        <v>0.1473006006102414</v>
+        <v>0.1928026748491032</v>
       </c>
       <c r="P24">
-        <v>0.1487465335432934</v>
+        <v>0.1933659624890163</v>
       </c>
       <c r="Q24">
-        <v>100.0375046605213</v>
+        <v>106.4968502656742</v>
       </c>
       <c r="R24">
-        <v>900.337541944692</v>
+        <v>958.471652391068</v>
       </c>
       <c r="S24">
-        <v>0.01580981748239122</v>
+        <v>0.01860507934037673</v>
       </c>
       <c r="T24">
-        <v>0.01708665141542305</v>
+        <v>0.02010303206016647</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H25">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I25">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J25">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.478501</v>
+        <v>2.338518</v>
       </c>
       <c r="N25">
-        <v>16.957002</v>
+        <v>4.677036</v>
       </c>
       <c r="O25">
-        <v>0.02916235219621802</v>
+        <v>0.0087391953474509</v>
       </c>
       <c r="P25">
-        <v>0.01963241055449567</v>
+        <v>0.005843151713055659</v>
       </c>
       <c r="Q25">
-        <v>19.805275278274</v>
+        <v>4.827198476828</v>
       </c>
       <c r="R25">
-        <v>118.831651669644</v>
+        <v>28.96319086096801</v>
       </c>
       <c r="S25">
-        <v>0.003130003976014759</v>
+        <v>0.0008433151818958363</v>
       </c>
       <c r="T25">
-        <v>0.002255193096594112</v>
+        <v>0.0006074754041919188</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H26">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I26">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J26">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>41.30642933333333</v>
+        <v>67.05398933333333</v>
       </c>
       <c r="N26">
-        <v>123.919288</v>
+        <v>201.161968</v>
       </c>
       <c r="O26">
-        <v>0.1420761335272424</v>
+        <v>0.2505851618888069</v>
       </c>
       <c r="P26">
-        <v>0.1434707820189435</v>
+        <v>0.2513172654477853</v>
       </c>
       <c r="Q26">
-        <v>96.48936807452623</v>
+        <v>138.4136941323982</v>
       </c>
       <c r="R26">
-        <v>868.404312670736</v>
+        <v>1245.723247191584</v>
       </c>
       <c r="S26">
-        <v>0.015249073869108</v>
+        <v>0.02418097581950682</v>
       </c>
       <c r="T26">
-        <v>0.01648062097489035</v>
+        <v>0.02612786128198325</v>
       </c>
     </row>
   </sheetData>
